--- a/Model2/excel/DemR/results/Overview_fullweek_noDR.xlsx
+++ b/Model2/excel/DemR/results/Overview_fullweek_noDR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>generation</t>
   </si>
@@ -28,6 +28,33 @@
     <t>DR</t>
   </si>
   <si>
+    <t>generation0</t>
+  </si>
+  <si>
+    <t>storage0</t>
+  </si>
+  <si>
+    <t>DR0</t>
+  </si>
+  <si>
+    <t>generation10</t>
+  </si>
+  <si>
+    <t>storage10</t>
+  </si>
+  <si>
+    <t>DR10</t>
+  </si>
+  <si>
+    <t>generation20</t>
+  </si>
+  <si>
+    <t>storage20</t>
+  </si>
+  <si>
+    <t>DR20</t>
+  </si>
+  <si>
     <t>generation30</t>
   </si>
   <si>
@@ -37,6 +64,15 @@
     <t>DR30</t>
   </si>
   <si>
+    <t>generation40</t>
+  </si>
+  <si>
+    <t>storage40</t>
+  </si>
+  <si>
+    <t>DR40</t>
+  </si>
+  <si>
     <t>generation50</t>
   </si>
   <si>
@@ -46,6 +82,15 @@
     <t>DR50</t>
   </si>
   <si>
+    <t>generation60</t>
+  </si>
+  <si>
+    <t>storage60</t>
+  </si>
+  <si>
+    <t>DR60</t>
+  </si>
+  <si>
     <t>generation70</t>
   </si>
   <si>
@@ -79,12 +124,27 @@
     <t>BEL</t>
   </si>
   <si>
+    <t>BEL0</t>
+  </si>
+  <si>
+    <t>BEL10</t>
+  </si>
+  <si>
+    <t>BEL20</t>
+  </si>
+  <si>
     <t>BEL30</t>
   </si>
   <si>
+    <t>BEL40</t>
+  </si>
+  <si>
     <t>BEL50</t>
   </si>
   <si>
+    <t>BEL60</t>
+  </si>
+  <si>
     <t>BEL70</t>
   </si>
   <si>
@@ -121,10 +181,25 @@
     <t>curt</t>
   </si>
   <si>
+    <t>curt0</t>
+  </si>
+  <si>
+    <t>curt10</t>
+  </si>
+  <si>
+    <t>curt20</t>
+  </si>
+  <si>
     <t>curt30</t>
   </si>
   <si>
+    <t>curt40</t>
+  </si>
+  <si>
     <t>curt50</t>
+  </si>
+  <si>
+    <t>curt60</t>
   </si>
   <si>
     <t>curt70</t>
@@ -503,18 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -552,224 +627,494 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>2050</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C2">
+        <v>196515.641234821</v>
+      </c>
+      <c r="D2">
+        <v>4449.32788596097</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>196515.641234821</v>
+      </c>
+      <c r="G2">
+        <v>4449.32788596097</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>15077.2498264828</v>
       </c>
-      <c r="D2">
+      <c r="J2">
         <v>216281.277948735</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>322294.089547602</v>
+      </c>
+      <c r="M2">
+        <v>9170.93207977584</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>356879.471692704</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <v>74689.4628410289</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>53969.8145020642</v>
+      </c>
+      <c r="S2">
+        <v>475720.6260795</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>130598.340578323</v>
       </c>
-      <c r="J2">
+      <c r="V2">
         <v>459544.953535614</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>146260.483260714</v>
+      </c>
+      <c r="Y2">
+        <v>487135.235366475</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>263112.712556788</v>
       </c>
-      <c r="M2">
+      <c r="AB2">
         <v>416535.446445251</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>2050</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3">
+        <v>111573.487797218</v>
+      </c>
+      <c r="D3">
+        <v>93356.2875384264</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>111573.487797218</v>
+      </c>
+      <c r="G3">
+        <v>93356.2875384264</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5094.71650889031</v>
       </c>
-      <c r="D3">
+      <c r="J3">
         <v>230234.972031504</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>152043.72542662</v>
+      </c>
+      <c r="M3">
+        <v>183388.845406429</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>173127.466433919</v>
       </c>
-      <c r="G3">
+      <c r="P3">
         <v>262403.886778357</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>24947.1041095175</v>
+      </c>
+      <c r="S3">
+        <v>511790.745061785</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>8979.25229450168</v>
       </c>
-      <c r="J3">
+      <c r="V3">
         <v>589782.482751476</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>12486.1423475419</v>
+      </c>
+      <c r="Y3">
+        <v>636889.095891468</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>97107.0549408361</v>
       </c>
-      <c r="M3">
+      <c r="AB3">
         <v>605805.03377359</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2050</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4">
+        <v>29639.2103180398</v>
+      </c>
+      <c r="D4">
+        <v>104760.78968196</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>29639.2103180398</v>
+      </c>
+      <c r="G4">
+        <v>104760.78968196</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>27810.4493673939</v>
       </c>
-      <c r="D4">
+      <c r="J4">
         <v>106589.550632606</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>35956.5546624141</v>
+      </c>
+      <c r="M4">
+        <v>98443.4453375748</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>69109.8902029466</v>
       </c>
-      <c r="G4">
+      <c r="P4">
         <v>65290.1097970513</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>67798.5859574448</v>
+      </c>
+      <c r="S4">
+        <v>66601.4140425586</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>75490.3218887211</v>
       </c>
-      <c r="J4">
+      <c r="V4">
         <v>58909.678111284</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>53951.3468909786</v>
+      </c>
+      <c r="Y4">
+        <v>80448.6531090264</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>29489.3623015109</v>
       </c>
-      <c r="M4">
+      <c r="AB4">
         <v>104910.637698489</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2050</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C5">
+        <v>857820.696833684</v>
+      </c>
+      <c r="D5">
+        <v>456248.745557421</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>857820.696833684</v>
+      </c>
+      <c r="G5">
+        <v>456248.745557421</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>56672.8120529477</v>
       </c>
-      <c r="D5">
+      <c r="J5">
         <v>1358032.69876929</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1406558.68649297</v>
+      </c>
+      <c r="M5">
+        <v>339554.663561864</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>577175.046528738</v>
       </c>
-      <c r="G5">
+      <c r="P5">
         <v>1500300.00238618</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>655399.987422713</v>
+      </c>
+      <c r="S5">
+        <v>1746893.06817437</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>97447.5946133484</v>
       </c>
-      <c r="J5">
+      <c r="V5">
         <v>2504900.15408218</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>92995.6329130912</v>
+      </c>
+      <c r="Y5">
+        <v>2652116.1206261</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>988535.228655029</v>
       </c>
-      <c r="M5">
+      <c r="AB5">
         <v>1911592.2491604</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>2050</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C6">
+        <v>636861.992575403</v>
+      </c>
+      <c r="D6">
+        <v>712970.325758399</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>636861.992575403</v>
+      </c>
+      <c r="G6">
+        <v>712970.325758399</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>10270.6715197103</v>
       </c>
-      <c r="D6">
+      <c r="J6">
         <v>1441656.75747006</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>334963.82499594</v>
+      </c>
+      <c r="M6">
+        <v>1453137.06777404</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>831564.462548626</v>
       </c>
-      <c r="G6">
+      <c r="P6">
         <v>1292701.22677632</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>332895.58656833</v>
+      </c>
+      <c r="S6">
+        <v>2122875.06909414</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>169359.307068291</v>
       </c>
-      <c r="J6">
+      <c r="V6">
         <v>2527191.57939123</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>262267.127004621</v>
+      </c>
+      <c r="Y6">
+        <v>2640330.63349551</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>296198.975785441</v>
       </c>
-      <c r="M6">
+      <c r="AB6">
         <v>2816676.46769277</v>
       </c>
-      <c r="N6">
+      <c r="AC6">
         <v>0</v>
       </c>
     </row>
@@ -780,136 +1125,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>2050</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D2">
+        <v>4018.73366898865</v>
+      </c>
+      <c r="E2">
+        <v>4018.73366898865</v>
+      </c>
+      <c r="F2">
         <v>3639.76856357837</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>3546.7459873238</v>
+      </c>
+      <c r="H2">
         <v>5221.30601809191</v>
       </c>
-      <c r="F2">
+      <c r="I2">
+        <v>7853.14816114385</v>
+      </c>
+      <c r="J2">
         <v>9091.94563857883</v>
       </c>
-      <c r="G2">
+      <c r="K2">
+        <v>7993.3530835812</v>
+      </c>
+      <c r="L2">
         <v>5976.53589743747</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2050</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D3">
+        <v>1881.50711139388</v>
+      </c>
+      <c r="E3">
+        <v>1881.50711139388</v>
+      </c>
+      <c r="F3">
         <v>1938.78223047852</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>1989.86142559448</v>
+      </c>
+      <c r="H3">
         <v>1344.42579030269</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>266.224502708163</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>615.246119828966</v>
+      </c>
+      <c r="L3">
         <v>1645.82101799314</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2050</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D4">
+        <v>7385.8053255322</v>
+      </c>
+      <c r="E4">
+        <v>7385.8053255322</v>
+      </c>
+      <c r="F4">
         <v>7105.3064993677</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>6009.55308641017</v>
+      </c>
+      <c r="H4">
         <v>4203.62806060518</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>1938.13858304196</v>
+      </c>
+      <c r="J4">
         <v>453.708414145857</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2050</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D5">
+        <v>817.784165523779</v>
+      </c>
+      <c r="E5">
+        <v>817.784165523779</v>
+      </c>
+      <c r="F5">
         <v>687.414566785337</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>746.490388050028</v>
+      </c>
+      <c r="H5">
         <v>978.3818864245</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>1420.66090789632</v>
+      </c>
+      <c r="J5">
         <v>1591.17148210733</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>2023.13283620235</v>
+      </c>
+      <c r="L5">
         <v>2470.78243508504</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2050</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -918,21 +1338,36 @@
         <v>3000</v>
       </c>
       <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6">
+        <v>3000</v>
+      </c>
+      <c r="J6">
         <v>6531.8329885672</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>12076.1034407869</v>
+      </c>
+      <c r="L6">
         <v>17530.4509627836</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>2050</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -946,27 +1381,57 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>2050</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D8">
+        <v>1906.90467273771</v>
+      </c>
+      <c r="E8">
+        <v>1906.90467273771</v>
+      </c>
+      <c r="F8">
         <v>3367.71678315971</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <v>8177.84286384452</v>
+      </c>
+      <c r="H8">
         <v>12989.7219287295</v>
       </c>
-      <c r="F8">
+      <c r="I8">
+        <v>18106.6754690816</v>
+      </c>
+      <c r="J8">
         <v>21889.1679010655</v>
       </c>
-      <c r="G8">
+      <c r="K8">
+        <v>24486.6736991914</v>
+      </c>
+      <c r="L8">
         <v>27441.6386726193</v>
       </c>
     </row>
@@ -977,58 +1442,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>2050</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>50.357501356408</v>
       </c>
       <c r="D2">
+        <v>50.357501356408</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>106.705119942</v>
       </c>
-      <c r="E2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>436.1717702561</v>
       </c>
-      <c r="F2">
+      <c r="J2">
+        <v>9311.5341106963</v>
+      </c>
+      <c r="K2">
         <v>82719.2633724918</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2050</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1042,24 +1537,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2050</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C4">
+        <v>116.938968596974</v>
+      </c>
+      <c r="D4">
+        <v>116.938968596974</v>
+      </c>
+      <c r="E4">
         <v>133.535558186796</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>98.6054550532381</v>
+      </c>
+      <c r="G4">
         <v>741.9741866617</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>146054.49594609</v>
+      </c>
+      <c r="I4">
         <v>463568.827290171</v>
       </c>
-      <c r="F4">
+      <c r="J4">
+        <v>655919.947272289</v>
+      </c>
+      <c r="K4">
         <v>916176.273133464</v>
       </c>
     </row>
@@ -1070,44 +1595,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>2050</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1121,16 +1661,31 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2050</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1144,50 +1699,95 @@
       <c r="G3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2050</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D4">
+        <v>1812.15137421303</v>
+      </c>
+      <c r="E4">
+        <v>1812.15137421303</v>
+      </c>
+      <c r="F4">
         <v>2469.00417593797</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>3315.5156437091</v>
+      </c>
+      <c r="H4">
         <v>3632.40412768457</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>3640.72564342587</v>
+      </c>
+      <c r="J4">
         <v>4017.99506016773</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>5446.65512285979</v>
+      </c>
+      <c r="L4">
         <v>7255.97550590543</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2050</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D5">
+        <v>99.3393308118616</v>
+      </c>
+      <c r="E5">
+        <v>99.3393308118616</v>
+      </c>
+      <c r="F5">
         <v>99.9999999999989</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>85.0033768596616</v>
+      </c>
+      <c r="H5">
         <v>65.8278422126869</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>64.2074375211929</v>
+      </c>
+      <c r="J5">
         <v>73.8936547153465</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>71.9472880070361</v>
+      </c>
+      <c r="L5">
         <v>49.9365806699078</v>
       </c>
     </row>

--- a/Model2/excel/DemR/results/Overview_fullweek_noDR.xlsx
+++ b/Model2/excel/DemR/results/Overview_fullweek_noDR.xlsx
@@ -7,16 +7,166 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reserves" sheetId="1" r:id="rId1"/>
+    <sheet name="capacities" sheetId="2" r:id="rId2"/>
+    <sheet name="storage" sheetId="3" r:id="rId3"/>
+    <sheet name="generation" sheetId="4" r:id="rId4"/>
+    <sheet name="demandshift" sheetId="5" r:id="rId5"/>
+    <sheet name="curtailment" sheetId="6" r:id="rId6"/>
+    <sheet name="storc" sheetId="7" r:id="rId7"/>
+    <sheet name="stordisc" sheetId="8" r:id="rId8"/>
+    <sheet name="maxshift" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>generation30</t>
+  </si>
+  <si>
+    <t>storage30</t>
+  </si>
+  <si>
+    <t>DR30</t>
+  </si>
+  <si>
+    <t>generation50</t>
+  </si>
+  <si>
+    <t>storage50</t>
+  </si>
+  <si>
+    <t>DR50</t>
+  </si>
+  <si>
+    <t>generation70</t>
+  </si>
+  <si>
+    <t>storage70</t>
+  </si>
+  <si>
+    <t>DR70</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AFRR_DN</t>
+  </si>
+  <si>
+    <t>AFRR_UP</t>
+  </si>
+  <si>
+    <t>FCR_UP</t>
+  </si>
+  <si>
+    <t>MFRR_DN</t>
+  </si>
+  <si>
+    <t>MFRR_UP</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BEL30</t>
+  </si>
+  <si>
+    <t>BEL50</t>
+  </si>
+  <si>
+    <t>BEL70</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BEL_Z</t>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>OCGT</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>STOR_L</t>
+  </si>
+  <si>
+    <t>STOR_M_C</t>
+  </si>
+  <si>
+    <t>STOR_M_E</t>
+  </si>
+  <si>
+    <t>STOR_S</t>
+  </si>
+  <si>
+    <t>curt</t>
+  </si>
+  <si>
+    <t>curt30</t>
+  </si>
+  <si>
+    <t>curt50</t>
+  </si>
+  <si>
+    <t>curt70</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +190,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +508,1129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>99036.2003744121</v>
+      </c>
+      <c r="D2">
+        <v>1363941.88792392</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2219349.75827135</v>
+      </c>
+      <c r="G2">
+        <v>420150.812476325</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>850262.273154553</v>
+      </c>
+      <c r="J2">
+        <v>2758295.18671476</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1808099.85764534</v>
+      </c>
+      <c r="M2">
+        <v>2359318.34420635</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>27122.3316837294</v>
+      </c>
+      <c r="D3">
+        <v>1461567.4396732</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1136682.11205879</v>
+      </c>
+      <c r="G3">
+        <v>1528480.49275383</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>62355.7770702861</v>
+      </c>
+      <c r="J3">
+        <v>3601940.70309183</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>740725.071267878</v>
+      </c>
+      <c r="M3">
+        <v>3576691.91218851</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>180701.061552974</v>
+      </c>
+      <c r="D4">
+        <v>695301.338447025</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>459198.412684703</v>
+      </c>
+      <c r="G4">
+        <v>416803.987315281</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>503072.567296376</v>
+      </c>
+      <c r="J4">
+        <v>372929.832703657</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>214565.384382547</v>
+      </c>
+      <c r="M4">
+        <v>661437.015617458</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>393355.924229406</v>
+      </c>
+      <c r="D5">
+        <v>8678591.46388271</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4068668.54948569</v>
+      </c>
+      <c r="G5">
+        <v>8897997.77393693</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>780604.242076883</v>
+      </c>
+      <c r="J5">
+        <v>15393452.3788069</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6940571.6221262</v>
+      </c>
+      <c r="M5">
+        <v>11096209.7848057</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>73288.7529086714</v>
+      </c>
+      <c r="D6">
+        <v>9237637.63146068</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4939813.16021784</v>
+      </c>
+      <c r="G6">
+        <v>8322062.08790994</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>814324.882367241</v>
+      </c>
+      <c r="J6">
+        <v>15959064.2373372</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1962677.94980507</v>
+      </c>
+      <c r="M6">
+        <v>17442276.1516708</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>3639.76856357837</v>
+      </c>
+      <c r="E2">
+        <v>5221.30601809191</v>
+      </c>
+      <c r="F2">
+        <v>9091.94563857883</v>
+      </c>
+      <c r="G2">
+        <v>5976.53589743747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>1938.78223047852</v>
+      </c>
+      <c r="E3">
+        <v>1344.42579030269</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1645.82101799314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>7105.3064993677</v>
+      </c>
+      <c r="E4">
+        <v>4203.62806060518</v>
+      </c>
+      <c r="F4">
+        <v>453.708414145857</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>687.414566785337</v>
+      </c>
+      <c r="E5">
+        <v>978.3818864245</v>
+      </c>
+      <c r="F5">
+        <v>1591.17148210733</v>
+      </c>
+      <c r="G5">
+        <v>2470.78243508504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>6531.8329885672</v>
+      </c>
+      <c r="G6">
+        <v>17530.4509627836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>3367.71678315971</v>
+      </c>
+      <c r="E8">
+        <v>12989.7219287295</v>
+      </c>
+      <c r="F8">
+        <v>21889.1679010655</v>
+      </c>
+      <c r="G8">
+        <v>27441.6386726193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>2469.00417593797</v>
+      </c>
+      <c r="E4">
+        <v>3632.40412768457</v>
+      </c>
+      <c r="F4">
+        <v>4017.99506016773</v>
+      </c>
+      <c r="G4">
+        <v>7255.97550590543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>99.9999999999989</v>
+      </c>
+      <c r="E5">
+        <v>65.8278422126869</v>
+      </c>
+      <c r="F5">
+        <v>73.8936547153465</v>
+      </c>
+      <c r="G5">
+        <v>49.9365806699078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>14209716.7890588</v>
+      </c>
+      <c r="D2">
+        <v>24078002.7713072</v>
+      </c>
+      <c r="E2">
+        <v>47146334.0851624</v>
+      </c>
+      <c r="F2">
+        <v>22526378.6115711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>15392263.1316723</v>
+      </c>
+      <c r="D3">
+        <v>10573624.2349285</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>10772016.8541367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>62242655.4618172</v>
+      </c>
+      <c r="D4">
+        <v>36593893.0190326</v>
+      </c>
+      <c r="E4">
+        <v>3766055.54849136</v>
+      </c>
+      <c r="F4">
+        <v>-6.20314021490202e-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>411511.920488299</v>
+      </c>
+      <c r="D5">
+        <v>784303.913222053</v>
+      </c>
+      <c r="E5">
+        <v>858978.237288166</v>
+      </c>
+      <c r="F5">
+        <v>1370986.6673376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>3064318.49854914</v>
+      </c>
+      <c r="D6">
+        <v>3063812.5028707</v>
+      </c>
+      <c r="E6">
+        <v>6668660.93390186</v>
+      </c>
+      <c r="F6">
+        <v>17392921.8447697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>7150223.42191816</v>
+      </c>
+      <c r="D8">
+        <v>27579813.2585321</v>
+      </c>
+      <c r="E8">
+        <v>44404048.6684351</v>
+      </c>
+      <c r="F8">
+        <v>54108871.598502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>7.87622411735356e-10</v>
+      </c>
+      <c r="C2">
+        <v>9.04037733562291e-10</v>
+      </c>
+      <c r="D2">
+        <v>9.31322574615479e-10</v>
+      </c>
+      <c r="E2">
+        <v>1.73167791217566e-09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>1090.85197482794</v>
+      </c>
+      <c r="C2">
+        <v>4242.60907793609</v>
+      </c>
+      <c r="D2">
+        <v>2080600.61540074</v>
+      </c>
+      <c r="E2">
+        <v>4676558.01771945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>1348751.42079062</v>
+      </c>
+      <c r="C2">
+        <v>2134018.30463752</v>
+      </c>
+      <c r="D2">
+        <v>2818884.95596214</v>
+      </c>
+      <c r="E2">
+        <v>16160186.1320339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>1023481.40195992</v>
+      </c>
+      <c r="C2">
+        <v>1605987.80943886</v>
+      </c>
+      <c r="D2">
+        <v>2120226.68736029</v>
+      </c>
+      <c r="E2">
+        <v>12134429.7603782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.00044417195022e-11</v>
+      </c>
+      <c r="C2">
+        <v>1.00044417195022e-11</v>
+      </c>
+      <c r="D2">
+        <v>1.09139364212751e-11</v>
+      </c>
+      <c r="E2">
+        <v>1.09139364212751e-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.00044417195022e-11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1.00044417195022e-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.00044417195022e-11</v>
+      </c>
+      <c r="C9">
+        <v>1.00044417195022e-11</v>
+      </c>
+      <c r="D9">
+        <v>1.00044417195022e-11</v>
+      </c>
+      <c r="E9">
+        <v>1.00044417195022e-11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>